--- a/RobotArm_Java/log/floatingTargetTestConstantSpeed.xlsx
+++ b/RobotArm_Java/log/floatingTargetTestConstantSpeed.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielruoff/Documents/GitHub/ELE492-RobotArm/hwdemo/log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielruoff/Documents/GitHub/ELE492-RobotArm/RobotArm_Java/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D248757-9381-DE42-B669-9CD1424A0504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1D8B39-ED07-CD40-8B13-681DF8D02D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arm" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -663,609 +676,609 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>arm!$A$1:$A$200</c:f>
+              <c:f>arm!$D$1:$D$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>69745000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70928100</c:v>
+                  <c:v>1.1831000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127805200</c:v>
+                  <c:v>5.8060199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189170800</c:v>
+                  <c:v>0.1194258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>253319600</c:v>
+                  <c:v>0.1835746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315240700</c:v>
+                  <c:v>0.24549570000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>377305800</c:v>
+                  <c:v>0.30756080000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>441230800</c:v>
+                  <c:v>0.37148579999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>505272700</c:v>
+                  <c:v>0.43552770000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>569008300</c:v>
+                  <c:v>0.49926330000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>630232700</c:v>
+                  <c:v>0.56048770000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>691786000</c:v>
+                  <c:v>0.62204099999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>754797700</c:v>
+                  <c:v>0.68505269999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>817224400</c:v>
+                  <c:v>0.74747940000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>880281800</c:v>
+                  <c:v>0.81053679999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>941441300</c:v>
+                  <c:v>0.87169629999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1003477900</c:v>
+                  <c:v>0.93373289999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1063621700</c:v>
+                  <c:v>0.99387669999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1125894400</c:v>
+                  <c:v>1.0561494</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1188797000</c:v>
+                  <c:v>1.1190519999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1249799300</c:v>
+                  <c:v>1.1800542999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1311505700</c:v>
+                  <c:v>1.2417606999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1373048900</c:v>
+                  <c:v>1.3033039</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1433946400</c:v>
+                  <c:v>1.3642014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1495939500</c:v>
+                  <c:v>1.4261945</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1556893800</c:v>
+                  <c:v>1.4871487999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1618661300</c:v>
+                  <c:v>1.5489162999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1682177600</c:v>
+                  <c:v>1.6124326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1741889100</c:v>
+                  <c:v>1.6721440999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1804053000</c:v>
+                  <c:v>1.734308</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1865551400</c:v>
+                  <c:v>1.7958064</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1928210900</c:v>
+                  <c:v>1.8584658999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1988757100</c:v>
+                  <c:v>1.9190121</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2051356800</c:v>
+                  <c:v>1.9816118</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2113341300</c:v>
+                  <c:v>2.0435962999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2175195600</c:v>
+                  <c:v>2.1054506000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2236586800</c:v>
+                  <c:v>2.1668417999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2298957500</c:v>
+                  <c:v>2.2292125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2361406900</c:v>
+                  <c:v>2.2916618999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2421945400</c:v>
+                  <c:v>2.3522004000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2483881000</c:v>
+                  <c:v>2.4141360000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2546671300</c:v>
+                  <c:v>2.4769263000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2607917000</c:v>
+                  <c:v>2.5381719999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2668863300</c:v>
+                  <c:v>2.5991183000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2732220100</c:v>
+                  <c:v>2.6624751</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2794809100</c:v>
+                  <c:v>2.7250641</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2856791600</c:v>
+                  <c:v>2.7870466</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2918081300</c:v>
+                  <c:v>2.8483363000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2979993700</c:v>
+                  <c:v>2.9102486999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3043341400</c:v>
+                  <c:v>2.9735963999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3106300600</c:v>
+                  <c:v>3.0365555999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3168011500</c:v>
+                  <c:v>3.0982664999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3229936300</c:v>
+                  <c:v>3.1601913000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3291913800</c:v>
+                  <c:v>3.2221687999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3353918800</c:v>
+                  <c:v>3.2841738</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3417258600</c:v>
+                  <c:v>3.3475136000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3479887500</c:v>
+                  <c:v>3.4101425000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3541705400</c:v>
+                  <c:v>3.4719603999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3602697900</c:v>
+                  <c:v>3.5329529000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3662886000</c:v>
+                  <c:v>3.5931410000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3724885700</c:v>
+                  <c:v>3.6551407</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3788560200</c:v>
+                  <c:v>3.7188151999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3849735000</c:v>
+                  <c:v>3.7799900000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3912714700</c:v>
+                  <c:v>3.8429696999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3975399200</c:v>
+                  <c:v>3.9056541999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4037851000</c:v>
+                  <c:v>3.9681060000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4099775000</c:v>
+                  <c:v>4.03003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4160658900</c:v>
+                  <c:v>4.0909139000000003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4223712300</c:v>
+                  <c:v>4.1539672999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4283734800</c:v>
+                  <c:v>4.2139898000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4345483800</c:v>
+                  <c:v>4.2757388000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4405949000</c:v>
+                  <c:v>4.3362040000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4468731600</c:v>
+                  <c:v>4.3989865999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4530903400</c:v>
+                  <c:v>4.4611584000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4591711000</c:v>
+                  <c:v>4.5219659999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4652826200</c:v>
+                  <c:v>4.5830811999999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4715155900</c:v>
+                  <c:v>4.6454108999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4776397800</c:v>
+                  <c:v>4.7066527999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4839695000</c:v>
+                  <c:v>4.7699499999999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4900702000</c:v>
+                  <c:v>4.8309569999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4962833700</c:v>
+                  <c:v>4.8930886999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5023849900</c:v>
+                  <c:v>4.9541048999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5086849900</c:v>
+                  <c:v>5.0171048999999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5149726200</c:v>
+                  <c:v>5.0799811999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5212047400</c:v>
+                  <c:v>5.1423024000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5273702500</c:v>
+                  <c:v>5.2039574999999996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5337131100</c:v>
+                  <c:v>5.2673861000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5399714200</c:v>
+                  <c:v>5.3299691999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5460123400</c:v>
+                  <c:v>5.3903784000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5521629400</c:v>
+                  <c:v>5.4518844</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5581811900</c:v>
+                  <c:v>5.5120668999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5643971800</c:v>
+                  <c:v>5.5742267999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5705293900</c:v>
+                  <c:v>5.6355488999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5768584700</c:v>
+                  <c:v>5.6988396999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5828938600</c:v>
+                  <c:v>5.7591935999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5891251200</c:v>
+                  <c:v>5.8215062</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5952785600</c:v>
+                  <c:v>5.8830406000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6013950900</c:v>
+                  <c:v>5.9442059</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6077339900</c:v>
+                  <c:v>6.0075949</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6138766400</c:v>
+                  <c:v>6.0690213999999996</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6200840100</c:v>
+                  <c:v>6.1310950999999996</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6262799100</c:v>
+                  <c:v>6.1930541000000003</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6325765000</c:v>
+                  <c:v>6.2560200000000004</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6387441900</c:v>
+                  <c:v>6.3176968999999996</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6449712600</c:v>
+                  <c:v>6.3799675999999996</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6510686700</c:v>
+                  <c:v>6.4409416999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6571469700</c:v>
+                  <c:v>6.5017246999999996</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6633598500</c:v>
+                  <c:v>6.5638534999999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6696402300</c:v>
+                  <c:v>6.6266572999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6758328800</c:v>
+                  <c:v>6.6885838</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6820835800</c:v>
+                  <c:v>6.7510908000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6882859100</c:v>
+                  <c:v>6.8131141</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6945230800</c:v>
+                  <c:v>6.8754857999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7007411800</c:v>
+                  <c:v>6.9376667999999997</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7069400100</c:v>
+                  <c:v>6.9996551</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7130666100</c:v>
+                  <c:v>7.0609210999999998</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7191731500</c:v>
+                  <c:v>7.1219865000000002</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7254754600</c:v>
+                  <c:v>7.1850095999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7316489800</c:v>
+                  <c:v>7.2467448000000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7378357800</c:v>
+                  <c:v>7.3086127999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7440396700</c:v>
+                  <c:v>7.3706516999999998</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7501724500</c:v>
+                  <c:v>7.4319794999999997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7562759000</c:v>
+                  <c:v>7.4930139999999996</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7623372800</c:v>
+                  <c:v>7.5536278000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7686112500</c:v>
+                  <c:v>7.6163675</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>7747092500</c:v>
+                  <c:v>7.6773474999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>7807439400</c:v>
+                  <c:v>7.7376943999999996</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>7869408800</c:v>
+                  <c:v>7.7996638000000003</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>7932375500</c:v>
+                  <c:v>7.8626304999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>7993751000</c:v>
+                  <c:v>7.9240060000000003</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>8055740300</c:v>
+                  <c:v>7.9859952999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8118355600</c:v>
+                  <c:v>8.0486105999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8180405700</c:v>
+                  <c:v>8.1106607000000004</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8241732300</c:v>
+                  <c:v>8.1719872999999996</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8302708100</c:v>
+                  <c:v>8.2329630999999992</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8363882500</c:v>
+                  <c:v>8.2941374999999997</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>8426508400</c:v>
+                  <c:v>8.3567634000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8488331300</c:v>
+                  <c:v>8.4185862999999994</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>8550711600</c:v>
+                  <c:v>8.4809666000000004</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>8613654800</c:v>
+                  <c:v>8.5439097999999998</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8675987400</c:v>
+                  <c:v>8.6062423999999993</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>8736632900</c:v>
+                  <c:v>8.6668879000000008</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8799697500</c:v>
+                  <c:v>8.7299524999999996</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>8862733500</c:v>
+                  <c:v>8.7929884999999999</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8923809000</c:v>
+                  <c:v>8.8540639999999993</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8985057600</c:v>
+                  <c:v>8.9153126</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>9046947700</c:v>
+                  <c:v>8.9772026999999994</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>9108355500</c:v>
+                  <c:v>9.0386105000000008</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>9171157700</c:v>
+                  <c:v>9.1014126999999991</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>9231383200</c:v>
+                  <c:v>9.1616382000000005</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>9293891800</c:v>
+                  <c:v>9.2241467999999998</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>9356335200</c:v>
+                  <c:v>9.2865901999999991</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>9418062400</c:v>
+                  <c:v>9.3483174000000009</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>9479279200</c:v>
+                  <c:v>9.4095341999999995</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>9541487700</c:v>
+                  <c:v>9.4717427000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>9601463700</c:v>
+                  <c:v>9.5317187000000008</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>9662461000</c:v>
+                  <c:v>9.5927159999999994</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>9723305100</c:v>
+                  <c:v>9.6535601</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>9785880100</c:v>
+                  <c:v>9.7161351000000007</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>9849865000</c:v>
+                  <c:v>9.7801200000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>9909720800</c:v>
+                  <c:v>9.8399757999999995</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>9971700700</c:v>
+                  <c:v>9.9019557000000002</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10031753600</c:v>
+                  <c:v>9.9620086000000008</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10094629500</c:v>
+                  <c:v>10.024884500000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>10155747700</c:v>
+                  <c:v>10.0860027</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>10218256000</c:v>
+                  <c:v>10.148510999999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>10280833900</c:v>
+                  <c:v>10.2110889</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>10343683400</c:v>
+                  <c:v>10.2739384</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>10404877000</c:v>
+                  <c:v>10.335132</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>10467631000</c:v>
+                  <c:v>10.397886</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>10529201700</c:v>
+                  <c:v>10.4594567</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>10590967200</c:v>
+                  <c:v>10.5212222</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>10651446100</c:v>
+                  <c:v>10.5817011</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>10712658700</c:v>
+                  <c:v>10.642913699999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>10775693600</c:v>
+                  <c:v>10.705948599999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>10838341500</c:v>
+                  <c:v>10.768596499999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>10900748600</c:v>
+                  <c:v>10.831003600000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>10961570700</c:v>
+                  <c:v>10.8918257</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>11023993300</c:v>
+                  <c:v>10.9542483</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>11085338400</c:v>
+                  <c:v>11.0155934</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>11147451600</c:v>
+                  <c:v>11.077706600000001</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>11209705800</c:v>
+                  <c:v>11.139960800000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>11271595900</c:v>
+                  <c:v>11.2018509</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>11333844800</c:v>
+                  <c:v>11.2640998</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11396816500</c:v>
+                  <c:v>11.327071500000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>11458446200</c:v>
+                  <c:v>11.3887012</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>11519691300</c:v>
+                  <c:v>11.449946300000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>11580030400</c:v>
+                  <c:v>11.510285400000001</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>11641067300</c:v>
+                  <c:v>11.5713223</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>11703878500</c:v>
+                  <c:v>11.634133500000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>11764441000</c:v>
+                  <c:v>11.694696</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>11824718800</c:v>
+                  <c:v>11.7549738</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>11886697700</c:v>
+                  <c:v>11.8169527</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>11949711500</c:v>
+                  <c:v>11.8799665</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>12011308300</c:v>
+                  <c:v>11.9415633</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>12072692500</c:v>
+                  <c:v>12.002947499999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>12135687900</c:v>
+                  <c:v>12.0659429</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>12198717300</c:v>
+                  <c:v>12.128972299999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>12258487000</c:v>
+                  <c:v>12.188742</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>12319712900</c:v>
+                  <c:v>12.2499679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1916,609 +1929,609 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>arm!$A$1:$A$200</c:f>
+              <c:f>arm!$D$1:$D$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>69745000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70928100</c:v>
+                  <c:v>1.1831000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127805200</c:v>
+                  <c:v>5.8060199999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>189170800</c:v>
+                  <c:v>0.1194258</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>253319600</c:v>
+                  <c:v>0.1835746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>315240700</c:v>
+                  <c:v>0.24549570000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>377305800</c:v>
+                  <c:v>0.30756080000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>441230800</c:v>
+                  <c:v>0.37148579999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>505272700</c:v>
+                  <c:v>0.43552770000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>569008300</c:v>
+                  <c:v>0.49926330000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>630232700</c:v>
+                  <c:v>0.56048770000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>691786000</c:v>
+                  <c:v>0.62204099999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>754797700</c:v>
+                  <c:v>0.68505269999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>817224400</c:v>
+                  <c:v>0.74747940000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>880281800</c:v>
+                  <c:v>0.81053679999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>941441300</c:v>
+                  <c:v>0.87169629999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1003477900</c:v>
+                  <c:v>0.93373289999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1063621700</c:v>
+                  <c:v>0.99387669999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1125894400</c:v>
+                  <c:v>1.0561494</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1188797000</c:v>
+                  <c:v>1.1190519999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1249799300</c:v>
+                  <c:v>1.1800542999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1311505700</c:v>
+                  <c:v>1.2417606999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1373048900</c:v>
+                  <c:v>1.3033039</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1433946400</c:v>
+                  <c:v>1.3642014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1495939500</c:v>
+                  <c:v>1.4261945</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1556893800</c:v>
+                  <c:v>1.4871487999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1618661300</c:v>
+                  <c:v>1.5489162999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1682177600</c:v>
+                  <c:v>1.6124326</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1741889100</c:v>
+                  <c:v>1.6721440999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1804053000</c:v>
+                  <c:v>1.734308</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1865551400</c:v>
+                  <c:v>1.7958064</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1928210900</c:v>
+                  <c:v>1.8584658999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1988757100</c:v>
+                  <c:v>1.9190121</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2051356800</c:v>
+                  <c:v>1.9816118</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2113341300</c:v>
+                  <c:v>2.0435962999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2175195600</c:v>
+                  <c:v>2.1054506000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2236586800</c:v>
+                  <c:v>2.1668417999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2298957500</c:v>
+                  <c:v>2.2292125</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2361406900</c:v>
+                  <c:v>2.2916618999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2421945400</c:v>
+                  <c:v>2.3522004000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2483881000</c:v>
+                  <c:v>2.4141360000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2546671300</c:v>
+                  <c:v>2.4769263000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2607917000</c:v>
+                  <c:v>2.5381719999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2668863300</c:v>
+                  <c:v>2.5991183000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2732220100</c:v>
+                  <c:v>2.6624751</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2794809100</c:v>
+                  <c:v>2.7250641</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2856791600</c:v>
+                  <c:v>2.7870466</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2918081300</c:v>
+                  <c:v>2.8483363000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2979993700</c:v>
+                  <c:v>2.9102486999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3043341400</c:v>
+                  <c:v>2.9735963999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3106300600</c:v>
+                  <c:v>3.0365555999999998</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3168011500</c:v>
+                  <c:v>3.0982664999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3229936300</c:v>
+                  <c:v>3.1601913000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3291913800</c:v>
+                  <c:v>3.2221687999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3353918800</c:v>
+                  <c:v>3.2841738</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3417258600</c:v>
+                  <c:v>3.3475136000000001</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3479887500</c:v>
+                  <c:v>3.4101425000000001</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3541705400</c:v>
+                  <c:v>3.4719603999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3602697900</c:v>
+                  <c:v>3.5329529000000002</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3662886000</c:v>
+                  <c:v>3.5931410000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3724885700</c:v>
+                  <c:v>3.6551407</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3788560200</c:v>
+                  <c:v>3.7188151999999999</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3849735000</c:v>
+                  <c:v>3.7799900000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3912714700</c:v>
+                  <c:v>3.8429696999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3975399200</c:v>
+                  <c:v>3.9056541999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4037851000</c:v>
+                  <c:v>3.9681060000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4099775000</c:v>
+                  <c:v>4.03003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4160658900</c:v>
+                  <c:v>4.0909139000000003</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4223712300</c:v>
+                  <c:v>4.1539672999999997</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4283734800</c:v>
+                  <c:v>4.2139898000000002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4345483800</c:v>
+                  <c:v>4.2757388000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4405949000</c:v>
+                  <c:v>4.3362040000000004</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4468731600</c:v>
+                  <c:v>4.3989865999999997</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4530903400</c:v>
+                  <c:v>4.4611584000000004</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4591711000</c:v>
+                  <c:v>4.5219659999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4652826200</c:v>
+                  <c:v>4.5830811999999996</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4715155900</c:v>
+                  <c:v>4.6454108999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4776397800</c:v>
+                  <c:v>4.7066527999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4839695000</c:v>
+                  <c:v>4.7699499999999997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4900702000</c:v>
+                  <c:v>4.8309569999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4962833700</c:v>
+                  <c:v>4.8930886999999998</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5023849900</c:v>
+                  <c:v>4.9541048999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5086849900</c:v>
+                  <c:v>5.0171048999999996</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5149726200</c:v>
+                  <c:v>5.0799811999999998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5212047400</c:v>
+                  <c:v>5.1423024000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5273702500</c:v>
+                  <c:v>5.2039574999999996</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5337131100</c:v>
+                  <c:v>5.2673861000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5399714200</c:v>
+                  <c:v>5.3299691999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5460123400</c:v>
+                  <c:v>5.3903784000000003</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5521629400</c:v>
+                  <c:v>5.4518844</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5581811900</c:v>
+                  <c:v>5.5120668999999998</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5643971800</c:v>
+                  <c:v>5.5742267999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5705293900</c:v>
+                  <c:v>5.6355488999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5768584700</c:v>
+                  <c:v>5.6988396999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5828938600</c:v>
+                  <c:v>5.7591935999999997</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5891251200</c:v>
+                  <c:v>5.8215062</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>5952785600</c:v>
+                  <c:v>5.8830406000000002</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6013950900</c:v>
+                  <c:v>5.9442059</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6077339900</c:v>
+                  <c:v>6.0075949</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6138766400</c:v>
+                  <c:v>6.0690213999999996</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6200840100</c:v>
+                  <c:v>6.1310950999999996</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6262799100</c:v>
+                  <c:v>6.1930541000000003</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6325765000</c:v>
+                  <c:v>6.2560200000000004</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6387441900</c:v>
+                  <c:v>6.3176968999999996</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>6449712600</c:v>
+                  <c:v>6.3799675999999996</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>6510686700</c:v>
+                  <c:v>6.4409416999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>6571469700</c:v>
+                  <c:v>6.5017246999999996</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6633598500</c:v>
+                  <c:v>6.5638534999999996</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>6696402300</c:v>
+                  <c:v>6.6266572999999998</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>6758328800</c:v>
+                  <c:v>6.6885838</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6820835800</c:v>
+                  <c:v>6.7510908000000001</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>6882859100</c:v>
+                  <c:v>6.8131141</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6945230800</c:v>
+                  <c:v>6.8754857999999999</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>7007411800</c:v>
+                  <c:v>6.9376667999999997</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7069400100</c:v>
+                  <c:v>6.9996551</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7130666100</c:v>
+                  <c:v>7.0609210999999998</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>7191731500</c:v>
+                  <c:v>7.1219865000000002</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7254754600</c:v>
+                  <c:v>7.1850095999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>7316489800</c:v>
+                  <c:v>7.2467448000000001</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7378357800</c:v>
+                  <c:v>7.3086127999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7440396700</c:v>
+                  <c:v>7.3706516999999998</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7501724500</c:v>
+                  <c:v>7.4319794999999997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7562759000</c:v>
+                  <c:v>7.4930139999999996</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7623372800</c:v>
+                  <c:v>7.5536278000000001</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7686112500</c:v>
+                  <c:v>7.6163675</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>7747092500</c:v>
+                  <c:v>7.6773474999999998</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>7807439400</c:v>
+                  <c:v>7.7376943999999996</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>7869408800</c:v>
+                  <c:v>7.7996638000000003</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>7932375500</c:v>
+                  <c:v>7.8626304999999999</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>7993751000</c:v>
+                  <c:v>7.9240060000000003</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>8055740300</c:v>
+                  <c:v>7.9859952999999999</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>8118355600</c:v>
+                  <c:v>8.0486105999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8180405700</c:v>
+                  <c:v>8.1106607000000004</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8241732300</c:v>
+                  <c:v>8.1719872999999996</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8302708100</c:v>
+                  <c:v>8.2329630999999992</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>8363882500</c:v>
+                  <c:v>8.2941374999999997</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>8426508400</c:v>
+                  <c:v>8.3567634000000002</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8488331300</c:v>
+                  <c:v>8.4185862999999994</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>8550711600</c:v>
+                  <c:v>8.4809666000000004</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>8613654800</c:v>
+                  <c:v>8.5439097999999998</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>8675987400</c:v>
+                  <c:v>8.6062423999999993</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>8736632900</c:v>
+                  <c:v>8.6668879000000008</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>8799697500</c:v>
+                  <c:v>8.7299524999999996</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>8862733500</c:v>
+                  <c:v>8.7929884999999999</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>8923809000</c:v>
+                  <c:v>8.8540639999999993</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>8985057600</c:v>
+                  <c:v>8.9153126</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>9046947700</c:v>
+                  <c:v>8.9772026999999994</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>9108355500</c:v>
+                  <c:v>9.0386105000000008</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>9171157700</c:v>
+                  <c:v>9.1014126999999991</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>9231383200</c:v>
+                  <c:v>9.1616382000000005</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>9293891800</c:v>
+                  <c:v>9.2241467999999998</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>9356335200</c:v>
+                  <c:v>9.2865901999999991</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>9418062400</c:v>
+                  <c:v>9.3483174000000009</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>9479279200</c:v>
+                  <c:v>9.4095341999999995</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>9541487700</c:v>
+                  <c:v>9.4717427000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>9601463700</c:v>
+                  <c:v>9.5317187000000008</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>9662461000</c:v>
+                  <c:v>9.5927159999999994</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>9723305100</c:v>
+                  <c:v>9.6535601</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>9785880100</c:v>
+                  <c:v>9.7161351000000007</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>9849865000</c:v>
+                  <c:v>9.7801200000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>9909720800</c:v>
+                  <c:v>9.8399757999999995</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>9971700700</c:v>
+                  <c:v>9.9019557000000002</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>10031753600</c:v>
+                  <c:v>9.9620086000000008</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>10094629500</c:v>
+                  <c:v>10.024884500000001</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>10155747700</c:v>
+                  <c:v>10.0860027</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>10218256000</c:v>
+                  <c:v>10.148510999999999</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>10280833900</c:v>
+                  <c:v>10.2110889</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>10343683400</c:v>
+                  <c:v>10.2739384</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>10404877000</c:v>
+                  <c:v>10.335132</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>10467631000</c:v>
+                  <c:v>10.397886</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>10529201700</c:v>
+                  <c:v>10.4594567</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>10590967200</c:v>
+                  <c:v>10.5212222</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>10651446100</c:v>
+                  <c:v>10.5817011</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>10712658700</c:v>
+                  <c:v>10.642913699999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>10775693600</c:v>
+                  <c:v>10.705948599999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>10838341500</c:v>
+                  <c:v>10.768596499999999</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>10900748600</c:v>
+                  <c:v>10.831003600000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>10961570700</c:v>
+                  <c:v>10.8918257</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>11023993300</c:v>
+                  <c:v>10.9542483</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>11085338400</c:v>
+                  <c:v>11.0155934</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>11147451600</c:v>
+                  <c:v>11.077706600000001</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>11209705800</c:v>
+                  <c:v>11.139960800000001</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>11271595900</c:v>
+                  <c:v>11.2018509</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>11333844800</c:v>
+                  <c:v>11.2640998</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>11396816500</c:v>
+                  <c:v>11.327071500000001</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>11458446200</c:v>
+                  <c:v>11.3887012</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>11519691300</c:v>
+                  <c:v>11.449946300000001</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>11580030400</c:v>
+                  <c:v>11.510285400000001</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>11641067300</c:v>
+                  <c:v>11.5713223</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>11703878500</c:v>
+                  <c:v>11.634133500000001</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>11764441000</c:v>
+                  <c:v>11.694696</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>11824718800</c:v>
+                  <c:v>11.7549738</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>11886697700</c:v>
+                  <c:v>11.8169527</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>11949711500</c:v>
+                  <c:v>11.8799665</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>12011308300</c:v>
+                  <c:v>11.9415633</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>12072692500</c:v>
+                  <c:v>12.002947499999999</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>12135687900</c:v>
+                  <c:v>12.0659429</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>12198717300</c:v>
+                  <c:v>12.128972299999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>12258487000</c:v>
+                  <c:v>12.188742</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>12319712900</c:v>
+                  <c:v>12.2499679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,6 +3184,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3233,6 +3301,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3911,15 +4039,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>467360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>78105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4246,15 +4374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C262"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>69745000</v>
       </c>
@@ -4264,8 +4392,12 @@
       <c r="C1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1">
+        <f>(A1-$A$1)/(10^9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>70928100</v>
       </c>
@@ -4275,8 +4407,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="0">(A2-$A$1)/(10^9)</f>
+        <v>1.1831000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>127805200</v>
       </c>
@@ -4286,8 +4422,12 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>5.8060199999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>189170800</v>
       </c>
@@ -4297,8 +4437,12 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0.1194258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>253319600</v>
       </c>
@@ -4308,8 +4452,12 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.1835746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>315240700</v>
       </c>
@@ -4319,8 +4467,12 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.24549570000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>377305800</v>
       </c>
@@ -4330,8 +4482,12 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.30756080000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>441230800</v>
       </c>
@@ -4341,8 +4497,12 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.37148579999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>505272700</v>
       </c>
@@ -4352,8 +4512,12 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.43552770000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>569008300</v>
       </c>
@@ -4363,8 +4527,12 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.49926330000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>630232700</v>
       </c>
@@ -4374,8 +4542,12 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.56048770000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>691786000</v>
       </c>
@@ -4385,8 +4557,12 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.62204099999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>754797700</v>
       </c>
@@ -4396,8 +4572,12 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.68505269999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>817224400</v>
       </c>
@@ -4407,8 +4587,12 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.74747940000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>880281800</v>
       </c>
@@ -4418,8 +4602,12 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.81053679999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>941441300</v>
       </c>
@@ -4429,8 +4617,12 @@
       <c r="C16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.87169629999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1003477900</v>
       </c>
@@ -4440,8 +4632,12 @@
       <c r="C17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.93373289999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1063621700</v>
       </c>
@@ -4451,8 +4647,12 @@
       <c r="C18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.99387669999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1125894400</v>
       </c>
@@ -4462,8 +4662,12 @@
       <c r="C19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.0561494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1188797000</v>
       </c>
@@ -4473,8 +4677,12 @@
       <c r="C20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.1190519999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1249799300</v>
       </c>
@@ -4484,8 +4692,12 @@
       <c r="C21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.1800542999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1311505700</v>
       </c>
@@ -4495,8 +4707,12 @@
       <c r="C22">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1.2417606999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1373048900</v>
       </c>
@@ -4506,8 +4722,12 @@
       <c r="C23">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1.3033039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1433946400</v>
       </c>
@@ -4517,8 +4737,12 @@
       <c r="C24">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.3642014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1495939500</v>
       </c>
@@ -4528,8 +4752,12 @@
       <c r="C25">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1.4261945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1556893800</v>
       </c>
@@ -4539,8 +4767,12 @@
       <c r="C26">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1.4871487999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1618661300</v>
       </c>
@@ -4550,8 +4782,12 @@
       <c r="C27">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1.5489162999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1682177600</v>
       </c>
@@ -4561,8 +4797,12 @@
       <c r="C28">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1.6124326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1741889100</v>
       </c>
@@ -4572,8 +4812,12 @@
       <c r="C29">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.6721440999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1804053000</v>
       </c>
@@ -4583,8 +4827,12 @@
       <c r="C30">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>1.734308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1865551400</v>
       </c>
@@ -4594,8 +4842,12 @@
       <c r="C31">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>1.7958064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1928210900</v>
       </c>
@@ -4605,8 +4857,12 @@
       <c r="C32">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>1.8584658999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1988757100</v>
       </c>
@@ -4616,8 +4872,12 @@
       <c r="C33">
         <v>57</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>1.9190121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2051356800</v>
       </c>
@@ -4627,8 +4887,12 @@
       <c r="C34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>1.9816118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2113341300</v>
       </c>
@@ -4638,8 +4902,12 @@
       <c r="C35">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>2.0435962999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2175195600</v>
       </c>
@@ -4649,8 +4917,12 @@
       <c r="C36">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>2.1054506000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2236586800</v>
       </c>
@@ -4660,8 +4932,12 @@
       <c r="C37">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>2.1668417999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2298957500</v>
       </c>
@@ -4671,8 +4947,12 @@
       <c r="C38">
         <v>72</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>2.2292125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2361406900</v>
       </c>
@@ -4682,8 +4962,12 @@
       <c r="C39">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>2.2916618999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2421945400</v>
       </c>
@@ -4693,8 +4977,12 @@
       <c r="C40">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>2.3522004000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2483881000</v>
       </c>
@@ -4704,8 +4992,12 @@
       <c r="C41">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>2.4141360000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2546671300</v>
       </c>
@@ -4715,8 +5007,12 @@
       <c r="C42">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>2.4769263000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2607917000</v>
       </c>
@@ -4726,8 +5022,12 @@
       <c r="C43">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2.5381719999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2668863300</v>
       </c>
@@ -4737,8 +5037,12 @@
       <c r="C44">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.5991183000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2732220100</v>
       </c>
@@ -4748,8 +5052,12 @@
       <c r="C45">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>2.6624751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2794809100</v>
       </c>
@@ -4759,8 +5067,12 @@
       <c r="C46">
         <v>96</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>2.7250641</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2856791600</v>
       </c>
@@ -4770,8 +5082,12 @@
       <c r="C47">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>2.7870466</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2918081300</v>
       </c>
@@ -4781,8 +5097,12 @@
       <c r="C48">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>2.8483363000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2979993700</v>
       </c>
@@ -4792,8 +5112,12 @@
       <c r="C49">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>2.9102486999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3043341400</v>
       </c>
@@ -4803,8 +5127,12 @@
       <c r="C50">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>2.9735963999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3106300600</v>
       </c>
@@ -4814,8 +5142,12 @@
       <c r="C51">
         <v>85</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>3.0365555999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3168011500</v>
       </c>
@@ -4825,8 +5157,12 @@
       <c r="C52">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>3.0982664999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3229936300</v>
       </c>
@@ -4836,8 +5172,12 @@
       <c r="C53">
         <v>79</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>3.1601913000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3291913800</v>
       </c>
@@ -4847,8 +5187,12 @@
       <c r="C54">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>3.2221687999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3353918800</v>
       </c>
@@ -4858,8 +5202,12 @@
       <c r="C55">
         <v>73</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>3.2841738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3417258600</v>
       </c>
@@ -4869,8 +5217,12 @@
       <c r="C56">
         <v>70</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>3.3475136000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3479887500</v>
       </c>
@@ -4880,8 +5232,12 @@
       <c r="C57">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>3.4101425000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3541705400</v>
       </c>
@@ -4891,8 +5247,12 @@
       <c r="C58">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>3.4719603999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3602697900</v>
       </c>
@@ -4902,8 +5262,12 @@
       <c r="C59">
         <v>61</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>3.5329529000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3662886000</v>
       </c>
@@ -4913,8 +5277,12 @@
       <c r="C60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>3.5931410000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3724885700</v>
       </c>
@@ -4924,8 +5292,12 @@
       <c r="C61">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>3.6551407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3788560200</v>
       </c>
@@ -4935,8 +5307,12 @@
       <c r="C62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>3.7188151999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3849735000</v>
       </c>
@@ -4946,8 +5322,12 @@
       <c r="C63">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>3.7799900000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3912714700</v>
       </c>
@@ -4957,8 +5337,12 @@
       <c r="C64">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>3.8429696999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3975399200</v>
       </c>
@@ -4968,8 +5352,12 @@
       <c r="C65">
         <v>70</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>3.9056541999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4037851000</v>
       </c>
@@ -4979,8 +5367,12 @@
       <c r="C66">
         <v>73</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <f t="shared" ref="D66:D129" si="1">(A66-$A$1)/(10^9)</f>
+        <v>3.9681060000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4099775000</v>
       </c>
@@ -4990,8 +5382,12 @@
       <c r="C67">
         <v>76</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>4.03003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4160658900</v>
       </c>
@@ -5001,8 +5397,12 @@
       <c r="C68">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>4.0909139000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4223712300</v>
       </c>
@@ -5012,8 +5412,12 @@
       <c r="C69">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>4.1539672999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4283734800</v>
       </c>
@@ -5023,8 +5427,12 @@
       <c r="C70">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>4.2139898000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4345483800</v>
       </c>
@@ -5034,8 +5442,12 @@
       <c r="C71">
         <v>88</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>4.2757388000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4405949000</v>
       </c>
@@ -5045,8 +5457,12 @@
       <c r="C72">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>4.3362040000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4468731600</v>
       </c>
@@ -5056,8 +5472,12 @@
       <c r="C73">
         <v>94</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>4.3989865999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4530903400</v>
       </c>
@@ -5067,8 +5487,12 @@
       <c r="C74">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>4.4611584000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4591711000</v>
       </c>
@@ -5078,8 +5502,12 @@
       <c r="C75">
         <v>100</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>4.5219659999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4652826200</v>
       </c>
@@ -5089,8 +5517,12 @@
       <c r="C76">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>4.5830811999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4715155900</v>
       </c>
@@ -5100,8 +5532,12 @@
       <c r="C77">
         <v>106</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>4.6454108999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4776397800</v>
       </c>
@@ -5111,8 +5547,12 @@
       <c r="C78">
         <v>109</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>4.7066527999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4839695000</v>
       </c>
@@ -5122,8 +5562,12 @@
       <c r="C79">
         <v>112</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>4.7699499999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4900702000</v>
       </c>
@@ -5133,8 +5577,12 @@
       <c r="C80">
         <v>115</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>4.8309569999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4962833700</v>
       </c>
@@ -5144,8 +5592,12 @@
       <c r="C81">
         <v>118</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>4.8930886999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5023849900</v>
       </c>
@@ -5155,8 +5607,12 @@
       <c r="C82">
         <v>115</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>4.9541048999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5086849900</v>
       </c>
@@ -5166,8 +5622,12 @@
       <c r="C83">
         <v>112</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>5.0171048999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5149726200</v>
       </c>
@@ -5177,8 +5637,12 @@
       <c r="C84">
         <v>109</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>5.0799811999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5212047400</v>
       </c>
@@ -5188,8 +5652,12 @@
       <c r="C85">
         <v>106</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>5.1423024000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5273702500</v>
       </c>
@@ -5199,8 +5667,12 @@
       <c r="C86">
         <v>103</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>5.2039574999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5337131100</v>
       </c>
@@ -5210,8 +5682,12 @@
       <c r="C87">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>5.2673861000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5399714200</v>
       </c>
@@ -5221,8 +5697,12 @@
       <c r="C88">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>5.3299691999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5460123400</v>
       </c>
@@ -5232,8 +5712,12 @@
       <c r="C89">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>5.3903784000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5521629400</v>
       </c>
@@ -5243,8 +5727,12 @@
       <c r="C90">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>5.4518844</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5581811900</v>
       </c>
@@ -5254,8 +5742,12 @@
       <c r="C91">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>5.5120668999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5643971800</v>
       </c>
@@ -5265,8 +5757,12 @@
       <c r="C92">
         <v>85</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>5.5742267999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5705293900</v>
       </c>
@@ -5276,8 +5772,12 @@
       <c r="C93">
         <v>82</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>5.6355488999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5768584700</v>
       </c>
@@ -5287,8 +5787,12 @@
       <c r="C94">
         <v>79</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>5.6988396999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5828938600</v>
       </c>
@@ -5298,8 +5802,12 @@
       <c r="C95">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>5.7591935999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5891251200</v>
       </c>
@@ -5309,8 +5817,12 @@
       <c r="C96">
         <v>73</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>5.8215062</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5952785600</v>
       </c>
@@ -5320,8 +5832,12 @@
       <c r="C97">
         <v>70</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>5.8830406000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>6013950900</v>
       </c>
@@ -5331,8 +5847,12 @@
       <c r="C98">
         <v>73</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>5.9442059</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6077339900</v>
       </c>
@@ -5342,8 +5862,12 @@
       <c r="C99">
         <v>76</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>6.0075949</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6138766400</v>
       </c>
@@ -5353,8 +5877,12 @@
       <c r="C100">
         <v>79</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>6.0690213999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6200840100</v>
       </c>
@@ -5364,8 +5892,12 @@
       <c r="C101">
         <v>82</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>6.1310950999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6262799100</v>
       </c>
@@ -5375,8 +5907,12 @@
       <c r="C102">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>6.1930541000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6325765000</v>
       </c>
@@ -5386,8 +5922,12 @@
       <c r="C103">
         <v>88</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>6.2560200000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>6387441900</v>
       </c>
@@ -5397,8 +5937,12 @@
       <c r="C104">
         <v>91</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>6.3176968999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6449712600</v>
       </c>
@@ -5408,8 +5952,12 @@
       <c r="C105">
         <v>94</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>6.3799675999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6510686700</v>
       </c>
@@ -5419,8 +5967,12 @@
       <c r="C106">
         <v>97</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>6.4409416999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6571469700</v>
       </c>
@@ -5430,8 +5982,12 @@
       <c r="C107">
         <v>100</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>6.5017246999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>6633598500</v>
       </c>
@@ -5441,8 +5997,12 @@
       <c r="C108">
         <v>103</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>6.5638534999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>6696402300</v>
       </c>
@@ -5452,8 +6012,12 @@
       <c r="C109">
         <v>106</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>6.6266572999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>6758328800</v>
       </c>
@@ -5463,8 +6027,12 @@
       <c r="C110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>6.6885838</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6820835800</v>
       </c>
@@ -5474,8 +6042,12 @@
       <c r="C111">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>6.7510908000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6882859100</v>
       </c>
@@ -5485,8 +6057,12 @@
       <c r="C112">
         <v>115</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>6.8131141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6945230800</v>
       </c>
@@ -5496,8 +6072,12 @@
       <c r="C113">
         <v>118</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>6.8754857999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7007411800</v>
       </c>
@@ -5507,8 +6087,12 @@
       <c r="C114">
         <v>121</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>6.9376667999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7069400100</v>
       </c>
@@ -5518,8 +6102,12 @@
       <c r="C115">
         <v>124</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>6.9996551</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7130666100</v>
       </c>
@@ -5529,8 +6117,12 @@
       <c r="C116">
         <v>127</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>7.0609210999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>7191731500</v>
       </c>
@@ -5540,8 +6132,12 @@
       <c r="C117">
         <v>124</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>7.1219865000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>7254754600</v>
       </c>
@@ -5551,8 +6147,12 @@
       <c r="C118">
         <v>121</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>7.1850095999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7316489800</v>
       </c>
@@ -5562,8 +6162,12 @@
       <c r="C119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>7.2467448000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7378357800</v>
       </c>
@@ -5573,8 +6177,12 @@
       <c r="C120">
         <v>115</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>7.3086127999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7440396700</v>
       </c>
@@ -5584,8 +6192,12 @@
       <c r="C121">
         <v>112</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>7.3706516999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7501724500</v>
       </c>
@@ -5595,8 +6207,12 @@
       <c r="C122">
         <v>109</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>7.4319794999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7562759000</v>
       </c>
@@ -5606,8 +6222,12 @@
       <c r="C123">
         <v>106</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>7.4930139999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7623372800</v>
       </c>
@@ -5617,8 +6237,12 @@
       <c r="C124">
         <v>103</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>7.5536278000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7686112500</v>
       </c>
@@ -5628,8 +6252,12 @@
       <c r="C125">
         <v>100</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>7.6163675</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7747092500</v>
       </c>
@@ -5639,8 +6267,12 @@
       <c r="C126">
         <v>97</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>7.6773474999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7807439400</v>
       </c>
@@ -5650,8 +6282,12 @@
       <c r="C127">
         <v>94</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>7.7376943999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7869408800</v>
       </c>
@@ -5661,8 +6297,12 @@
       <c r="C128">
         <v>91</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>7.7996638000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7932375500</v>
       </c>
@@ -5672,8 +6312,12 @@
       <c r="C129">
         <v>88</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>7.8626304999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7993751000</v>
       </c>
@@ -5683,8 +6327,12 @@
       <c r="C130">
         <v>85</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <f t="shared" ref="D130:D193" si="2">(A130-$A$1)/(10^9)</f>
+        <v>7.9240060000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8055740300</v>
       </c>
@@ -5694,8 +6342,12 @@
       <c r="C131">
         <v>82</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <f t="shared" si="2"/>
+        <v>7.9859952999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>8118355600</v>
       </c>
@@ -5705,8 +6357,12 @@
       <c r="C132">
         <v>79</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>8.0486105999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>8180405700</v>
       </c>
@@ -5716,8 +6372,12 @@
       <c r="C133">
         <v>76</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>8.1106607000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>8241732300</v>
       </c>
@@ -5727,8 +6387,12 @@
       <c r="C134">
         <v>73</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>8.1719872999999996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>8302708100</v>
       </c>
@@ -5738,8 +6402,12 @@
       <c r="C135">
         <v>70</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>8.2329630999999992</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8363882500</v>
       </c>
@@ -5749,8 +6417,12 @@
       <c r="C136">
         <v>67</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>8.2941374999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>8426508400</v>
       </c>
@@ -5760,8 +6432,12 @@
       <c r="C137">
         <v>64</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>8.3567634000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>8488331300</v>
       </c>
@@ -5771,8 +6447,12 @@
       <c r="C138">
         <v>61</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>8.4185862999999994</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>8550711600</v>
       </c>
@@ -5782,8 +6462,12 @@
       <c r="C139">
         <v>58</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>8.4809666000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>8613654800</v>
       </c>
@@ -5793,8 +6477,12 @@
       <c r="C140">
         <v>61</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>8.5439097999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>8675987400</v>
       </c>
@@ -5804,8 +6492,12 @@
       <c r="C141">
         <v>64</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>8.6062423999999993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>8736632900</v>
       </c>
@@ -5815,8 +6507,12 @@
       <c r="C142">
         <v>67</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>8.6668879000000008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>8799697500</v>
       </c>
@@ -5826,8 +6522,12 @@
       <c r="C143">
         <v>70</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>8.7299524999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>8862733500</v>
       </c>
@@ -5837,8 +6537,12 @@
       <c r="C144">
         <v>73</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>8.7929884999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>8923809000</v>
       </c>
@@ -5848,8 +6552,12 @@
       <c r="C145">
         <v>76</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>8.8540639999999993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>8985057600</v>
       </c>
@@ -5859,8 +6567,12 @@
       <c r="C146">
         <v>79</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>8.9153126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>9046947700</v>
       </c>
@@ -5870,8 +6582,12 @@
       <c r="C147">
         <v>82</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>8.9772026999999994</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9108355500</v>
       </c>
@@ -5881,8 +6597,12 @@
       <c r="C148">
         <v>85</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>9.0386105000000008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>9171157700</v>
       </c>
@@ -5892,8 +6612,12 @@
       <c r="C149">
         <v>88</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>9.1014126999999991</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>9231383200</v>
       </c>
@@ -5903,8 +6627,12 @@
       <c r="C150">
         <v>91</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>9.1616382000000005</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>9293891800</v>
       </c>
@@ -5914,8 +6642,12 @@
       <c r="C151">
         <v>94</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>9.2241467999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>9356335200</v>
       </c>
@@ -5925,8 +6657,12 @@
       <c r="C152">
         <v>97</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>9.2865901999999991</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>9418062400</v>
       </c>
@@ -5936,8 +6672,12 @@
       <c r="C153">
         <v>100</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>9.3483174000000009</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>9479279200</v>
       </c>
@@ -5947,8 +6687,12 @@
       <c r="C154">
         <v>103</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>9.4095341999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>9541487700</v>
       </c>
@@ -5958,8 +6702,12 @@
       <c r="C155">
         <v>106</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>9.4717427000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>9601463700</v>
       </c>
@@ -5969,8 +6717,12 @@
       <c r="C156">
         <v>109</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>9.5317187000000008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>9662461000</v>
       </c>
@@ -5980,8 +6732,12 @@
       <c r="C157">
         <v>112</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>9.5927159999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9723305100</v>
       </c>
@@ -5991,8 +6747,12 @@
       <c r="C158">
         <v>115</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>9.6535601</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9785880100</v>
       </c>
@@ -6002,8 +6762,12 @@
       <c r="C159">
         <v>118</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>9.7161351000000007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9849865000</v>
       </c>
@@ -6013,8 +6777,12 @@
       <c r="C160">
         <v>121</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>9.7801200000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>9909720800</v>
       </c>
@@ -6024,8 +6792,12 @@
       <c r="C161">
         <v>118</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>9.8399757999999995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>9971700700</v>
       </c>
@@ -6035,8 +6807,12 @@
       <c r="C162">
         <v>115</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>9.9019557000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>10031753600</v>
       </c>
@@ -6046,8 +6822,12 @@
       <c r="C163">
         <v>112</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>9.9620086000000008</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>10094629500</v>
       </c>
@@ -6057,8 +6837,12 @@
       <c r="C164">
         <v>109</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>10.024884500000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>10155747700</v>
       </c>
@@ -6068,8 +6852,12 @@
       <c r="C165">
         <v>106</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>10.0860027</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>10218256000</v>
       </c>
@@ -6079,8 +6867,12 @@
       <c r="C166">
         <v>103</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>10.148510999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>10280833900</v>
       </c>
@@ -6090,8 +6882,12 @@
       <c r="C167">
         <v>100</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>10.2110889</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>10343683400</v>
       </c>
@@ -6101,8 +6897,12 @@
       <c r="C168">
         <v>97</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>10.2739384</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>10404877000</v>
       </c>
@@ -6112,8 +6912,12 @@
       <c r="C169">
         <v>94</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>10.335132</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10467631000</v>
       </c>
@@ -6123,8 +6927,12 @@
       <c r="C170">
         <v>91</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>10.397886</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>10529201700</v>
       </c>
@@ -6134,8 +6942,12 @@
       <c r="C171">
         <v>88</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>10.4594567</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>10590967200</v>
       </c>
@@ -6145,8 +6957,12 @@
       <c r="C172">
         <v>85</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>10.5212222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10651446100</v>
       </c>
@@ -6156,8 +6972,12 @@
       <c r="C173">
         <v>82</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>10.5817011</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>10712658700</v>
       </c>
@@ -6167,8 +6987,12 @@
       <c r="C174">
         <v>79</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>10.642913699999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10775693600</v>
       </c>
@@ -6178,8 +7002,12 @@
       <c r="C175">
         <v>76</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>10.705948599999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>10838341500</v>
       </c>
@@ -6189,8 +7017,12 @@
       <c r="C176">
         <v>73</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>10.768596499999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10900748600</v>
       </c>
@@ -6200,8 +7032,12 @@
       <c r="C177">
         <v>70</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>10.831003600000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10961570700</v>
       </c>
@@ -6211,8 +7047,12 @@
       <c r="C178">
         <v>67</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>10.8918257</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>11023993300</v>
       </c>
@@ -6222,8 +7062,12 @@
       <c r="C179">
         <v>64</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>10.9542483</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11085338400</v>
       </c>
@@ -6233,8 +7077,12 @@
       <c r="C180">
         <v>61</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>11.0155934</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>11147451600</v>
       </c>
@@ -6244,8 +7092,12 @@
       <c r="C181">
         <v>58</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>11.077706600000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>11209705800</v>
       </c>
@@ -6255,8 +7107,12 @@
       <c r="C182">
         <v>55</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>11.139960800000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>11271595900</v>
       </c>
@@ -6266,8 +7122,12 @@
       <c r="C183">
         <v>52</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>11.2018509</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>11333844800</v>
       </c>
@@ -6277,8 +7137,12 @@
       <c r="C184">
         <v>49</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>11.2640998</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>11396816500</v>
       </c>
@@ -6288,8 +7152,12 @@
       <c r="C185">
         <v>46</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>11.327071500000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>11458446200</v>
       </c>
@@ -6299,8 +7167,12 @@
       <c r="C186">
         <v>43</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>11.3887012</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>11519691300</v>
       </c>
@@ -6310,8 +7182,12 @@
       <c r="C187">
         <v>40</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>11.449946300000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>11580030400</v>
       </c>
@@ -6321,8 +7197,12 @@
       <c r="C188">
         <v>37</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>11.510285400000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>11641067300</v>
       </c>
@@ -6332,8 +7212,12 @@
       <c r="C189">
         <v>34</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>11.5713223</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>11703878500</v>
       </c>
@@ -6343,8 +7227,12 @@
       <c r="C190">
         <v>31</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>11.634133500000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>11764441000</v>
       </c>
@@ -6354,8 +7242,12 @@
       <c r="C191">
         <v>28</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>11.694696</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>11824718800</v>
       </c>
@@ -6365,8 +7257,12 @@
       <c r="C192">
         <v>25</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>11.7549738</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>11886697700</v>
       </c>
@@ -6376,8 +7272,12 @@
       <c r="C193">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>11.8169527</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>11949711500</v>
       </c>
@@ -6387,8 +7287,12 @@
       <c r="C194">
         <v>19</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <f t="shared" ref="D194:D257" si="3">(A194-$A$1)/(10^9)</f>
+        <v>11.8799665</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>12011308300</v>
       </c>
@@ -6398,8 +7302,12 @@
       <c r="C195">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <f t="shared" si="3"/>
+        <v>11.9415633</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>12072692500</v>
       </c>
@@ -6409,8 +7317,12 @@
       <c r="C196">
         <v>13</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>12.002947499999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>12135687900</v>
       </c>
@@ -6420,8 +7332,12 @@
       <c r="C197">
         <v>10</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>12.0659429</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>12198717300</v>
       </c>
@@ -6431,8 +7347,12 @@
       <c r="C198">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>12.128972299999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>12258487000</v>
       </c>
@@ -6442,8 +7362,12 @@
       <c r="C199">
         <v>4</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>12.188742</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>12319712900</v>
       </c>
@@ -6453,8 +7377,12 @@
       <c r="C200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>12.2499679</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>12381721300</v>
       </c>
@@ -6464,8 +7392,12 @@
       <c r="C201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>12.3119763</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>12443635400</v>
       </c>
@@ -6475,8 +7407,12 @@
       <c r="C202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>12.373890400000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>12504804400</v>
       </c>
@@ -6486,8 +7422,12 @@
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>12.4350594</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>12564430100</v>
       </c>
@@ -6497,8 +7437,12 @@
       <c r="C204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>12.4946851</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>12627049100</v>
       </c>
@@ -6508,8 +7452,12 @@
       <c r="C205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>12.5573041</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>12689015400</v>
       </c>
@@ -6519,8 +7467,12 @@
       <c r="C206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>12.6192704</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>12751226000</v>
       </c>
@@ -6530,8 +7482,12 @@
       <c r="C207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>12.681481</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>12812624700</v>
       </c>
@@ -6541,8 +7497,12 @@
       <c r="C208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>12.7428797</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>12875424900</v>
       </c>
@@ -6552,8 +7512,12 @@
       <c r="C209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>12.805679899999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>12938895500</v>
       </c>
@@ -6563,8 +7527,12 @@
       <c r="C210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>12.8691505</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>13000983400</v>
       </c>
@@ -6574,8 +7542,12 @@
       <c r="C211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>12.9312384</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>13062646100</v>
       </c>
@@ -6585,8 +7557,12 @@
       <c r="C212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>12.992901099999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>13124521900</v>
       </c>
@@ -6596,8 +7572,12 @@
       <c r="C213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>13.0547769</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>13186160800</v>
       </c>
@@ -6607,8 +7587,12 @@
       <c r="C214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>13.1164158</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>13246236200</v>
       </c>
@@ -6618,8 +7602,12 @@
       <c r="C215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>13.176491199999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>13308280800</v>
       </c>
@@ -6629,8 +7617,12 @@
       <c r="C216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>13.238535799999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>13371431500</v>
       </c>
@@ -6640,8 +7632,12 @@
       <c r="C217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>13.301686500000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>13436286300</v>
       </c>
@@ -6651,8 +7647,12 @@
       <c r="C218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>13.3665413</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>13495620400</v>
       </c>
@@ -6662,8 +7662,12 @@
       <c r="C219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>13.425875400000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>13558153200</v>
       </c>
@@ -6673,8 +7677,12 @@
       <c r="C220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>13.4884082</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>13621085600</v>
       </c>
@@ -6684,8 +7692,12 @@
       <c r="C221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>13.5513406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>13682596200</v>
       </c>
@@ -6695,8 +7707,12 @@
       <c r="C222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>13.6128512</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>13743549400</v>
       </c>
@@ -6706,8 +7722,12 @@
       <c r="C223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>13.6738044</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>13804664700</v>
       </c>
@@ -6717,8 +7737,12 @@
       <c r="C224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>13.734919700000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>13866668300</v>
       </c>
@@ -6728,8 +7752,12 @@
       <c r="C225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>13.7969233</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>13928704300</v>
       </c>
@@ -6739,8 +7767,12 @@
       <c r="C226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>13.8589593</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>13988873500</v>
       </c>
@@ -6750,8 +7782,12 @@
       <c r="C227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>13.919128499999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>14049695800</v>
       </c>
@@ -6761,8 +7797,12 @@
       <c r="C228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>13.979950799999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>14110840400</v>
       </c>
@@ -6772,8 +7812,12 @@
       <c r="C229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>14.0410954</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>14171814500</v>
       </c>
@@ -6783,8 +7827,12 @@
       <c r="C230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>14.102069500000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>14233573700</v>
       </c>
@@ -6794,8 +7842,12 @@
       <c r="C231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>14.1638287</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>14296590700</v>
       </c>
@@ -6805,8 +7857,12 @@
       <c r="C232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>14.2268457</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>14358458700</v>
       </c>
@@ -6816,8 +7872,12 @@
       <c r="C233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>14.288713700000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>14419780700</v>
       </c>
@@ -6827,8 +7887,12 @@
       <c r="C234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>14.350035699999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>14480419800</v>
       </c>
@@ -6838,8 +7902,12 @@
       <c r="C235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>14.410674800000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>14541890600</v>
       </c>
@@ -6849,8 +7917,12 @@
       <c r="C236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>14.472145599999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>14602587500</v>
       </c>
@@ -6860,8 +7932,12 @@
       <c r="C237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>14.532842499999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>14664187600</v>
       </c>
@@ -6871,8 +7947,12 @@
       <c r="C238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>14.594442600000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>14725784100</v>
       </c>
@@ -6882,8 +7962,12 @@
       <c r="C239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>14.656039099999999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>14787433800</v>
       </c>
@@ -6893,8 +7977,12 @@
       <c r="C240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>14.717688799999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>14849684200</v>
       </c>
@@ -6904,8 +7992,12 @@
       <c r="C241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>14.779939199999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>14910421200</v>
       </c>
@@ -6915,8 +8007,12 @@
       <c r="C242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>14.840676200000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>14972353000</v>
       </c>
@@ -6926,8 +8022,12 @@
       <c r="C243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>14.902608000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>15035333600</v>
       </c>
@@ -6937,8 +8037,12 @@
       <c r="C244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>14.9655886</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>15097366700</v>
       </c>
@@ -6948,8 +8052,12 @@
       <c r="C245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>15.027621699999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>15158362100</v>
       </c>
@@ -6959,8 +8067,12 @@
       <c r="C246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>15.0886171</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>15220327900</v>
       </c>
@@ -6970,8 +8082,12 @@
       <c r="C247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>15.1505829</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>15283547500</v>
       </c>
@@ -6981,8 +8097,12 @@
       <c r="C248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>15.2138025</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>15345429800</v>
       </c>
@@ -6992,8 +8112,12 @@
       <c r="C249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>15.275684800000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>15406957600</v>
       </c>
@@ -7003,8 +8127,12 @@
       <c r="C250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>15.337212600000001</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>15469800200</v>
       </c>
@@ -7014,8 +8142,12 @@
       <c r="C251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>15.400055200000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>15532556600</v>
       </c>
@@ -7025,8 +8157,12 @@
       <c r="C252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>15.4628116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>15593816200</v>
       </c>
@@ -7036,8 +8172,12 @@
       <c r="C253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>15.5240712</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>15655335900</v>
       </c>
@@ -7047,8 +8187,12 @@
       <c r="C254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>15.5855909</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>15716462200</v>
       </c>
@@ -7058,8 +8202,12 @@
       <c r="C255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>15.646717199999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>15777665800</v>
       </c>
@@ -7069,8 +8217,12 @@
       <c r="C256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>15.7079208</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>15838930200</v>
       </c>
@@ -7080,8 +8232,12 @@
       <c r="C257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>15.769185200000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>15900714800</v>
       </c>
@@ -7091,8 +8247,12 @@
       <c r="C258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <f t="shared" ref="D258:D262" si="4">(A258-$A$1)/(10^9)</f>
+        <v>15.8309698</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>15962626800</v>
       </c>
@@ -7102,8 +8262,12 @@
       <c r="C259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <f t="shared" si="4"/>
+        <v>15.8928818</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>16025900900</v>
       </c>
@@ -7113,8 +8277,12 @@
       <c r="C260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>15.956155900000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>16087314400</v>
       </c>
@@ -7124,8 +8292,12 @@
       <c r="C261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>16.017569399999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>16148697500</v>
       </c>
@@ -7134,6 +8306,10 @@
       </c>
       <c r="C262">
         <v>0</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>16.0789525</v>
       </c>
     </row>
   </sheetData>
